--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2400,7 +2400,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -2435,7 +2435,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -2476,7 +2476,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -2499,13 +2499,13 @@
         <v>38</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" s="1">
         <v>0.0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
@@ -2540,13 +2540,13 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -2575,13 +2575,13 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -2645,13 +2645,13 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2715,7 +2715,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
@@ -2750,7 +2750,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
@@ -2814,7 +2814,7 @@
         <v>74</v>
       </c>
       <c r="G16" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" s="1">
         <v>0.0</v>
@@ -2925,7 +2925,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
@@ -3100,13 +3100,13 @@
         <v>0.0</v>
       </c>
       <c r="I24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -3141,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -3246,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -3310,7 +3310,7 @@
         <v>0.0</v>
       </c>
       <c r="I30" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>17</v>
@@ -3421,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -3514,13 +3514,13 @@
         <v>154</v>
       </c>
       <c r="G36" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H36" s="1">
         <v>0.0</v>
       </c>
       <c r="I36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>17</v>
@@ -3625,7 +3625,7 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>17</v>
@@ -3765,13 +3765,13 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -3905,7 +3905,7 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>17</v>
@@ -3975,7 +3975,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>17</v>
@@ -4080,7 +4080,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>17</v>
@@ -4115,7 +4115,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>17</v>
@@ -4144,19 +4144,19 @@
         <v>226</v>
       </c>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H54" s="1">
         <v>0.0</v>
       </c>
       <c r="I54" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -4185,13 +4185,13 @@
         <v>0.0</v>
       </c>
       <c r="I55" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -4290,13 +4290,13 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -4325,13 +4325,13 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -4395,7 +4395,7 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>17</v>
@@ -4430,7 +4430,7 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>17</v>
@@ -4500,13 +4500,13 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -4570,7 +4570,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>17</v>
@@ -4675,13 +4675,13 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -4780,7 +4780,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>17</v>
@@ -4815,13 +4815,13 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -4850,7 +4850,7 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>17</v>
@@ -4891,7 +4891,7 @@
         <v>17</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -4920,7 +4920,7 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>17</v>
@@ -4955,7 +4955,7 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>17</v>
@@ -4984,13 +4984,13 @@
         <v>322</v>
       </c>
       <c r="G78" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H78" s="1">
         <v>0.0</v>
       </c>
       <c r="I78" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>17</v>
@@ -5060,7 +5060,7 @@
         <v>0.0</v>
       </c>
       <c r="I80" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>17</v>
@@ -5270,13 +5270,13 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -5311,7 +5311,7 @@
         <v>17</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
@@ -5340,7 +5340,7 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>17</v>
@@ -5375,7 +5375,7 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>17</v>
@@ -5521,7 +5521,7 @@
         <v>17</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -5550,7 +5550,7 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>17</v>
@@ -5585,7 +5585,7 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>17</v>
@@ -5620,13 +5620,13 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -5760,7 +5760,7 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>17</v>
@@ -5859,7 +5859,7 @@
         <v>423</v>
       </c>
       <c r="G103" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H103" s="1">
         <v>0.0</v>
@@ -6104,19 +6104,19 @@
         <v>451</v>
       </c>
       <c r="G110" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H110" s="1">
         <v>0.0</v>
       </c>
       <c r="I110" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
@@ -6139,19 +6139,19 @@
         <v>455</v>
       </c>
       <c r="G111" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H111" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I111" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -6180,13 +6180,13 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -6495,13 +6495,13 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -6530,7 +6530,7 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>17</v>
@@ -6600,13 +6600,13 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
@@ -6635,13 +6635,13 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
@@ -6670,7 +6670,7 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>17</v>
@@ -6705,13 +6705,13 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
@@ -7020,7 +7020,7 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>17</v>
@@ -7055,7 +7055,7 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>17</v>
@@ -7265,7 +7265,7 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>17</v>
@@ -7329,7 +7329,7 @@
         <v>591</v>
       </c>
       <c r="G145" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H145" s="1">
         <v>0.0</v>
@@ -7510,7 +7510,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>17</v>
@@ -7650,7 +7650,7 @@
         <v>0.0</v>
       </c>
       <c r="I154" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>17</v>
@@ -7755,7 +7755,7 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>17</v>
@@ -7790,7 +7790,7 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>17</v>
@@ -7860,7 +7860,7 @@
         <v>0.0</v>
       </c>
       <c r="I160" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>17</v>
@@ -7895,7 +7895,7 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>17</v>
@@ -7971,7 +7971,7 @@
         <v>17</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164">
@@ -8181,7 +8181,7 @@
         <v>17</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
@@ -8210,7 +8210,7 @@
         <v>0.0</v>
       </c>
       <c r="I170" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>17</v>
@@ -8315,7 +8315,7 @@
         <v>0.0</v>
       </c>
       <c r="I173" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>17</v>
@@ -8350,7 +8350,7 @@
         <v>0.0</v>
       </c>
       <c r="I174" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>17</v>
@@ -8455,7 +8455,7 @@
         <v>0.0</v>
       </c>
       <c r="I177" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>17</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2849,10 +2849,10 @@
         <v>78</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H17" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" s="1">
         <v>1.0</v>
@@ -2931,7 +2931,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3631,7 +3631,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -4144,7 +4144,7 @@
         <v>226</v>
       </c>
       <c r="G54" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H54" s="1">
         <v>0.0</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2569,7 +2569,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" s="1">
         <v>0.0</v>
@@ -2639,7 +2639,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" s="1">
         <v>0.0</v>
@@ -2849,16 +2849,16 @@
         <v>78</v>
       </c>
       <c r="G17" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H17" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I17" s="1">
         <v>1.0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>22</v>
@@ -3316,7 +3316,7 @@
         <v>17</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -3596,7 +3596,7 @@
         <v>17</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -3759,16 +3759,16 @@
         <v>182</v>
       </c>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H43" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I43" s="1">
         <v>1.0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>22</v>
@@ -4077,7 +4077,7 @@
         <v>0.0</v>
       </c>
       <c r="H52" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52" s="1">
         <v>1.0</v>
@@ -4112,7 +4112,7 @@
         <v>0.0</v>
       </c>
       <c r="H53" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I53" s="1">
         <v>1.0</v>
@@ -4144,10 +4144,10 @@
         <v>226</v>
       </c>
       <c r="G54" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H54" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I54" s="1">
         <v>1.0</v>
@@ -4471,7 +4471,7 @@
         <v>17</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -5066,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -5305,7 +5305,7 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>17</v>
@@ -5451,7 +5451,7 @@
         <v>17</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -6142,13 +6142,13 @@
         <v>4.0</v>
       </c>
       <c r="H111" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I111" s="1">
         <v>1.0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>22</v>
@@ -6361,7 +6361,7 @@
         <v>17</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -6524,7 +6524,7 @@
         <v>499</v>
       </c>
       <c r="G122" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H122" s="1">
         <v>0.0</v>
@@ -6536,7 +6536,7 @@
         <v>17</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
@@ -6676,7 +6676,7 @@
         <v>17</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
@@ -7259,7 +7259,7 @@
         <v>583</v>
       </c>
       <c r="G143" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H143" s="1">
         <v>0.0</v>
@@ -7271,7 +7271,7 @@
         <v>17</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
@@ -7329,10 +7329,10 @@
         <v>591</v>
       </c>
       <c r="G145" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H145" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I145" s="1">
         <v>1.0</v>
@@ -7656,7 +7656,7 @@
         <v>17</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155">
@@ -7866,7 +7866,7 @@
         <v>17</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161">
@@ -8356,7 +8356,7 @@
         <v>17</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175">

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2499,16 +2499,16 @@
         <v>38</v>
       </c>
       <c r="G7" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I7" s="1">
         <v>1.0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
@@ -2534,7 +2534,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" s="1">
         <v>0.0</v>
@@ -2569,7 +2569,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H9" s="1">
         <v>0.0</v>
@@ -2639,16 +2639,16 @@
         <v>54</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H11" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I11" s="1">
         <v>1.0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
@@ -2814,16 +2814,16 @@
         <v>74</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H16" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I16" s="1">
         <v>1.0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>22</v>
@@ -3094,7 +3094,7 @@
         <v>106</v>
       </c>
       <c r="G24" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H24" s="1">
         <v>0.0</v>
@@ -3899,7 +3899,7 @@
         <v>198</v>
       </c>
       <c r="G47" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H47" s="1">
         <v>0.0</v>
@@ -3969,7 +3969,7 @@
         <v>206</v>
       </c>
       <c r="G49" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H49" s="1">
         <v>0.0</v>
@@ -4494,7 +4494,7 @@
         <v>266</v>
       </c>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H64" s="1">
         <v>0.0</v>
@@ -4669,7 +4669,7 @@
         <v>286</v>
       </c>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H69" s="1">
         <v>0.0</v>
@@ -4984,7 +4984,7 @@
         <v>322</v>
       </c>
       <c r="G78" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H78" s="1">
         <v>0.0</v>
@@ -5241,7 +5241,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -5579,7 +5579,7 @@
         <v>390</v>
       </c>
       <c r="G95" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H95" s="1">
         <v>0.0</v>
@@ -5859,10 +5859,10 @@
         <v>423</v>
       </c>
       <c r="G103" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H103" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I103" s="1">
         <v>1.0</v>
@@ -6104,10 +6104,10 @@
         <v>451</v>
       </c>
       <c r="G110" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H110" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0.0</v>
       </c>
       <c r="I110" s="1">
         <v>1.0</v>
@@ -6527,7 +6527,7 @@
         <v>1.0</v>
       </c>
       <c r="H122" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I122" s="1">
         <v>1.0</v>
@@ -7061,7 +7061,7 @@
         <v>17</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138">
@@ -7332,13 +7332,13 @@
         <v>4.0</v>
       </c>
       <c r="H145" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I145" s="1">
         <v>1.0</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>22</v>
@@ -7539,10 +7539,10 @@
         <v>615</v>
       </c>
       <c r="G151" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H151" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I151" s="1">
         <v>1.0</v>
@@ -8519,7 +8519,7 @@
         <v>726</v>
       </c>
       <c r="G179" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H179" s="1">
         <v>0.0</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2569,16 +2569,16 @@
         <v>46</v>
       </c>
       <c r="G9" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H9" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I9" s="1">
         <v>1.0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>22</v>
@@ -3094,16 +3094,16 @@
         <v>106</v>
       </c>
       <c r="G24" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H24" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I24" s="1">
         <v>1.0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>22</v>
@@ -4109,7 +4109,7 @@
         <v>222</v>
       </c>
       <c r="G53" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H53" s="1">
         <v>1.0</v>
@@ -4249,10 +4249,10 @@
         <v>238</v>
       </c>
       <c r="G57" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H57" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I57" s="1">
         <v>1.0</v>
@@ -4984,7 +4984,7 @@
         <v>322</v>
       </c>
       <c r="G78" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H78" s="1">
         <v>0.0</v>
@@ -6075,7 +6075,7 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>17</v>
@@ -6107,13 +6107,13 @@
         <v>4.0</v>
       </c>
       <c r="H110" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I110" s="1">
         <v>1.0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>22</v>
@@ -6524,10 +6524,10 @@
         <v>499</v>
       </c>
       <c r="G122" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H122" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I122" s="1">
         <v>1.0</v>
@@ -7542,7 +7542,7 @@
         <v>1.0</v>
       </c>
       <c r="H151" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I151" s="1">
         <v>1.0</v>
@@ -7889,10 +7889,10 @@
         <v>655</v>
       </c>
       <c r="G161" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H161" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I161" s="1">
         <v>1.0</v>
@@ -8519,13 +8519,13 @@
         <v>726</v>
       </c>
       <c r="G179" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I179" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H179" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I179" s="1">
-        <v>0.0</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>17</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2394,7 +2394,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="1">
         <v>0.0</v>
@@ -3969,7 +3969,7 @@
         <v>206</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H49" s="1">
         <v>0.0</v>
@@ -4109,10 +4109,10 @@
         <v>222</v>
       </c>
       <c r="G53" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H53" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I53" s="1">
         <v>1.0</v>
@@ -4179,7 +4179,7 @@
         <v>230</v>
       </c>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H55" s="1">
         <v>0.0</v>
@@ -4252,7 +4252,7 @@
         <v>3.0</v>
       </c>
       <c r="H57" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I57" s="1">
         <v>1.0</v>
@@ -4354,19 +4354,19 @@
         <v>250</v>
       </c>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H60" s="1">
         <v>0.0</v>
       </c>
       <c r="I60" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
@@ -4494,10 +4494,10 @@
         <v>266</v>
       </c>
       <c r="G64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H64" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.0</v>
       </c>
       <c r="I64" s="1">
         <v>1.0</v>
@@ -5369,7 +5369,7 @@
         <v>366</v>
       </c>
       <c r="G89" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H89" s="1">
         <v>0.0</v>
@@ -5862,13 +5862,13 @@
         <v>4.0</v>
       </c>
       <c r="H103" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I103" s="1">
         <v>1.0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>22</v>
@@ -6069,7 +6069,7 @@
         <v>447</v>
       </c>
       <c r="G109" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H109" s="1">
         <v>0.0</v>
@@ -6524,10 +6524,10 @@
         <v>499</v>
       </c>
       <c r="G122" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H122" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I122" s="1">
         <v>1.0</v>
@@ -6629,7 +6629,7 @@
         <v>511</v>
       </c>
       <c r="G125" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H125" s="1">
         <v>0.0</v>
@@ -6699,7 +6699,7 @@
         <v>519</v>
       </c>
       <c r="G127" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H127" s="1">
         <v>0.0</v>
@@ -8519,10 +8519,10 @@
         <v>726</v>
       </c>
       <c r="G179" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H179" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I179" s="1">
         <v>1.0</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -3514,7 +3514,7 @@
         <v>154</v>
       </c>
       <c r="G36" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H36" s="1">
         <v>0.0</v>
@@ -4109,10 +4109,10 @@
         <v>222</v>
       </c>
       <c r="G53" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H53" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>2.0</v>
       </c>
       <c r="I53" s="1">
         <v>1.0</v>
@@ -4354,10 +4354,10 @@
         <v>250</v>
       </c>
       <c r="G60" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H60" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I60" s="1">
         <v>1.0</v>
@@ -4961,7 +4961,7 @@
         <v>17</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -5235,7 +5235,7 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>17</v>
@@ -6524,7 +6524,7 @@
         <v>499</v>
       </c>
       <c r="G122" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H122" s="1">
         <v>3.0</v>
@@ -6632,7 +6632,7 @@
         <v>3.0</v>
       </c>
       <c r="H125" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I125" s="1">
         <v>1.0</v>
@@ -6702,7 +6702,7 @@
         <v>3.0</v>
       </c>
       <c r="H127" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I127" s="1">
         <v>1.0</v>
@@ -7749,16 +7749,16 @@
         <v>639</v>
       </c>
       <c r="G157" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H157" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I157" s="1">
         <v>1.0</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>22</v>
@@ -7889,10 +7889,10 @@
         <v>655</v>
       </c>
       <c r="G161" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H161" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I161" s="1">
         <v>1.0</v>
@@ -8519,16 +8519,16 @@
         <v>726</v>
       </c>
       <c r="G179" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H179" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I179" s="1">
         <v>1.0</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>22</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -499,7 +499,7 @@
     <t>Wed Sep 27 2023 06:04:16 GMT+0530 (GMT+05:30)</t>
   </si>
   <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48ed92b3-24bb-4fb8-86aa-332c18135b00</t>
+    <t>https://www.cloudskillsboost.google/public_profiles/7083b1b8-f354-4114-a754-3894cc4470d5</t>
   </si>
   <si>
     <t>Alakh Awasthi</t>
@@ -2429,16 +2429,16 @@
         <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I5" s="1">
         <v>1.0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -2470,7 +2470,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -2534,10 +2534,10 @@
         <v>42</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H8" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" s="1">
         <v>1.0</v>
@@ -2744,16 +2744,16 @@
         <v>66</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I14" s="1">
         <v>1.0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>22</v>
@@ -2779,10 +2779,10 @@
         <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H15" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" s="1">
         <v>1.0</v>
@@ -2919,7 +2919,7 @@
         <v>86</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H19" s="1">
         <v>0.0</v>
@@ -3281,7 +3281,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -3409,7 +3409,7 @@
         <v>142</v>
       </c>
       <c r="G33" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H33" s="1">
         <v>0.0</v>
@@ -3584,13 +3584,13 @@
         <v>162</v>
       </c>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H38" s="1">
         <v>0.0</v>
       </c>
       <c r="I38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>17</v>
@@ -3800,7 +3800,7 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>17</v>
@@ -3969,16 +3969,16 @@
         <v>206</v>
       </c>
       <c r="G49" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H49" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I49" s="1">
         <v>1.0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>22</v>
@@ -4112,13 +4112,13 @@
         <v>4.0</v>
       </c>
       <c r="H53" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I53" s="1">
         <v>1.0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>22</v>
@@ -4319,7 +4319,7 @@
         <v>246</v>
       </c>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H59" s="1">
         <v>0.0</v>
@@ -4809,10 +4809,10 @@
         <v>302</v>
       </c>
       <c r="G73" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H73" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I73" s="1">
         <v>1.0</v>
@@ -4844,16 +4844,16 @@
         <v>306</v>
       </c>
       <c r="G74" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H74" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I74" s="1">
         <v>1.0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>22</v>
@@ -5054,7 +5054,7 @@
         <v>330</v>
       </c>
       <c r="G80" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H80" s="1">
         <v>0.0</v>
@@ -5229,7 +5229,7 @@
         <v>350</v>
       </c>
       <c r="G85" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H85" s="1">
         <v>0.0</v>
@@ -5369,10 +5369,10 @@
         <v>366</v>
       </c>
       <c r="G89" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H89" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I89" s="1">
         <v>1.0</v>
@@ -5929,16 +5929,16 @@
         <v>431</v>
       </c>
       <c r="G105" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H105" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I105" s="1">
         <v>1.0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>22</v>
@@ -6072,13 +6072,13 @@
         <v>4.0</v>
       </c>
       <c r="H109" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I109" s="1">
         <v>1.0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>22</v>
@@ -6664,7 +6664,7 @@
         <v>515</v>
       </c>
       <c r="G126" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H126" s="1">
         <v>0.0</v>
@@ -8029,13 +8029,13 @@
         <v>671</v>
       </c>
       <c r="G165" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H165" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I165" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>17</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2464,7 +2464,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
@@ -2534,16 +2534,16 @@
         <v>42</v>
       </c>
       <c r="G8" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H8" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I8" s="1">
         <v>1.0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
@@ -2779,16 +2779,16 @@
         <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H15" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I15" s="1">
         <v>1.0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>22</v>
@@ -3409,13 +3409,13 @@
         <v>142</v>
       </c>
       <c r="G33" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H33" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I33" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>17</v>
@@ -3587,13 +3587,13 @@
         <v>4.0</v>
       </c>
       <c r="H38" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I38" s="1">
         <v>1.0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>22</v>
@@ -4322,13 +4322,13 @@
         <v>4.0</v>
       </c>
       <c r="H59" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I59" s="1">
         <v>1.0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>22</v>
@@ -4494,7 +4494,7 @@
         <v>266</v>
       </c>
       <c r="G64" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H64" s="1">
         <v>1.0</v>
@@ -4774,7 +4774,7 @@
         <v>298</v>
       </c>
       <c r="G72" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H72" s="1">
         <v>0.0</v>
@@ -4812,7 +4812,7 @@
         <v>4.0</v>
       </c>
       <c r="H73" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I73" s="1">
         <v>1.0</v>
@@ -4949,7 +4949,7 @@
         <v>318</v>
       </c>
       <c r="G77" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H77" s="1">
         <v>0.0</v>
@@ -5229,7 +5229,7 @@
         <v>350</v>
       </c>
       <c r="G85" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H85" s="1">
         <v>0.0</v>
@@ -5372,13 +5372,13 @@
         <v>4.0</v>
       </c>
       <c r="H89" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I89" s="1">
         <v>1.0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>22</v>
@@ -5544,7 +5544,7 @@
         <v>386</v>
       </c>
       <c r="G94" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H94" s="1">
         <v>0.0</v>
@@ -6244,7 +6244,7 @@
         <v>467</v>
       </c>
       <c r="G114" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H114" s="1">
         <v>0.0</v>
@@ -7364,13 +7364,13 @@
         <v>595</v>
       </c>
       <c r="G146" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H146" s="1">
         <v>0.0</v>
       </c>
       <c r="I146" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>17</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2464,16 +2464,16 @@
         <v>34</v>
       </c>
       <c r="G6" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I6" s="1">
         <v>1.0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
@@ -2995,7 +2995,7 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>17</v>
@@ -3412,13 +3412,13 @@
         <v>4.0</v>
       </c>
       <c r="H33" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I33" s="1">
         <v>1.0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>22</v>
@@ -4179,16 +4179,16 @@
         <v>230</v>
       </c>
       <c r="G55" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H55" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I55" s="1">
         <v>1.0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>22</v>
@@ -4424,10 +4424,10 @@
         <v>258</v>
       </c>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H62" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I62" s="1">
         <v>1.0</v>
@@ -4812,13 +4812,13 @@
         <v>4.0</v>
       </c>
       <c r="H73" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I73" s="1">
         <v>1.0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>22</v>
@@ -5229,7 +5229,7 @@
         <v>350</v>
       </c>
       <c r="G85" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H85" s="1">
         <v>0.0</v>
@@ -5544,16 +5544,16 @@
         <v>386</v>
       </c>
       <c r="G94" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H94" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I94" s="1">
         <v>1.0</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>22</v>
@@ -6244,16 +6244,16 @@
         <v>467</v>
       </c>
       <c r="G114" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H114" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I114" s="1">
         <v>1.0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>22</v>
@@ -6664,10 +6664,10 @@
         <v>515</v>
       </c>
       <c r="G126" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H126" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I126" s="1">
         <v>1.0</v>
@@ -7364,16 +7364,16 @@
         <v>595</v>
       </c>
       <c r="G146" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H146" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I146" s="1">
         <v>1.0</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>22</v>
@@ -7644,7 +7644,7 @@
         <v>627</v>
       </c>
       <c r="G154" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H154" s="1">
         <v>0.0</v>
@@ -7784,7 +7784,7 @@
         <v>643</v>
       </c>
       <c r="G158" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H158" s="1">
         <v>0.0</v>
@@ -8029,16 +8029,16 @@
         <v>671</v>
       </c>
       <c r="G165" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H165" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I165" s="1">
         <v>1.0</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>22</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2919,7 +2919,7 @@
         <v>86</v>
       </c>
       <c r="G19" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H19" s="1">
         <v>0.0</v>
@@ -2989,7 +2989,7 @@
         <v>94</v>
       </c>
       <c r="G21" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H21" s="1">
         <v>0.0</v>
@@ -3619,7 +3619,7 @@
         <v>166</v>
       </c>
       <c r="G39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" s="1">
         <v>0.0</v>
@@ -3899,10 +3899,10 @@
         <v>198</v>
       </c>
       <c r="G47" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H47" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" s="1">
         <v>1.0</v>
@@ -4074,7 +4074,7 @@
         <v>218</v>
       </c>
       <c r="G52" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H52" s="1">
         <v>1.0</v>
@@ -4427,13 +4427,13 @@
         <v>4.0</v>
       </c>
       <c r="H62" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I62" s="1">
         <v>1.0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>22</v>
@@ -4497,13 +4497,13 @@
         <v>4.0</v>
       </c>
       <c r="H64" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I64" s="1">
         <v>1.0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>22</v>
@@ -5970,13 +5970,13 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
@@ -6664,10 +6664,10 @@
         <v>515</v>
       </c>
       <c r="G126" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H126" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I126" s="1">
         <v>1.0</v>
@@ -7784,16 +7784,16 @@
         <v>643</v>
       </c>
       <c r="G158" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H158" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I158" s="1">
         <v>1.0</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>22</v>
@@ -7854,7 +7854,7 @@
         <v>651</v>
       </c>
       <c r="G160" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H160" s="1">
         <v>0.0</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2922,7 +2922,7 @@
         <v>4.0</v>
       </c>
       <c r="H19" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="1">
         <v>1.0</v>
@@ -3024,7 +3024,7 @@
         <v>98</v>
       </c>
       <c r="G22" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" s="1">
         <v>0.0</v>
@@ -3135,7 +3135,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>17</v>
@@ -3794,16 +3794,16 @@
         <v>186</v>
       </c>
       <c r="G44" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H44" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I44" s="1">
         <v>1.0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>22</v>
@@ -3899,16 +3899,16 @@
         <v>198</v>
       </c>
       <c r="G47" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H47" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I47" s="1">
         <v>1.0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>22</v>
@@ -4074,7 +4074,7 @@
         <v>218</v>
       </c>
       <c r="G52" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H52" s="1">
         <v>1.0</v>
@@ -4949,10 +4949,10 @@
         <v>318</v>
       </c>
       <c r="G77" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H77" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I77" s="1">
         <v>1.0</v>
@@ -5019,7 +5019,7 @@
         <v>326</v>
       </c>
       <c r="G79" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H79" s="1">
         <v>0.0</v>
@@ -5031,7 +5031,7 @@
         <v>17</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -5232,7 +5232,7 @@
         <v>4.0</v>
       </c>
       <c r="H85" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I85" s="1">
         <v>1.0</v>
@@ -6174,10 +6174,10 @@
         <v>459</v>
       </c>
       <c r="G112" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H112" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I112" s="1">
         <v>1.0</v>
@@ -7854,10 +7854,10 @@
         <v>651</v>
       </c>
       <c r="G160" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H160" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I160" s="1">
         <v>1.0</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -2922,13 +2922,13 @@
         <v>4.0</v>
       </c>
       <c r="H19" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I19" s="1">
         <v>1.0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>22</v>
@@ -3030,7 +3030,7 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>17</v>
@@ -3619,10 +3619,10 @@
         <v>166</v>
       </c>
       <c r="G39" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H39" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I39" s="1">
         <v>1.0</v>
@@ -4576,7 +4576,7 @@
         <v>17</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -4952,13 +4952,13 @@
         <v>4.0</v>
       </c>
       <c r="H77" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I77" s="1">
         <v>1.0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>22</v>
@@ -5019,7 +5019,7 @@
         <v>326</v>
       </c>
       <c r="G79" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H79" s="1">
         <v>0.0</v>
@@ -5232,13 +5232,13 @@
         <v>4.0</v>
       </c>
       <c r="H85" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I85" s="1">
         <v>1.0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>22</v>
@@ -6177,13 +6177,13 @@
         <v>4.0</v>
       </c>
       <c r="H112" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I112" s="1">
         <v>1.0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>22</v>
@@ -6664,7 +6664,7 @@
         <v>515</v>
       </c>
       <c r="G126" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H126" s="1">
         <v>4.0</v>
@@ -6673,7 +6673,7 @@
         <v>1.0</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>22</v>
@@ -7857,13 +7857,13 @@
         <v>4.0</v>
       </c>
       <c r="H160" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I160" s="1">
         <v>1.0</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>22</v>
